--- a/Project1271_J. Bardin(2016).xlsx
+++ b/Project1271_J. Bardin(2016).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remi/Desktop/Finished &amp; Uploaded copy 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjjg18\GitHub\neotrans\matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25087C6-5CCF-934C-9626-55B9E44DA8C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A71386-64D2-416B-9F5C-B70C7B975381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{82CB97C3-56FC-3A46-9CD0-A600CD051AFF}"/>
+    <workbookView xWindow="16455" yWindow="1560" windowWidth="15945" windowHeight="18375" xr2:uid="{82CB97C3-56FC-3A46-9CD0-A600CD051AFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Project1271" sheetId="1" r:id="rId1"/>
@@ -230,55 +230,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>62459</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>41639</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>104097</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A94DC560-FB4E-608C-64E9-E312F851F99B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10534754" y="312295"/>
-          <a:ext cx="10759605" cy="6724753"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -604,13 +555,13 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.33203125" customWidth="1"/>
-    <col min="2" max="3" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="83.375" customWidth="1"/>
+    <col min="2" max="3" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,7 +572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -632,7 +583,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -640,7 +591,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -651,7 +602,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -662,7 +613,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -673,7 +624,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -684,7 +635,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -695,7 +646,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -706,7 +657,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -717,7 +668,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -728,7 +679,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -739,7 +690,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -750,7 +701,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -758,7 +709,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -769,7 +720,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -780,7 +731,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -791,7 +742,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -802,7 +753,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -813,7 +764,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -824,7 +775,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -835,7 +786,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -846,7 +797,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -857,7 +808,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -868,7 +819,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -879,7 +830,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -890,7 +841,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -901,7 +852,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -912,7 +863,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -923,7 +874,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -934,7 +885,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -945,7 +896,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -956,7 +907,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -967,7 +918,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -981,6 +932,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>